--- a/data/pca/factorExposure/factorExposure_2015-05-05.xlsx
+++ b/data/pca/factorExposure/factorExposure_2015-05-05.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
   <si>
     <t>factor1</t>
   </si>
@@ -23,6 +23,18 @@
   </si>
   <si>
     <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -689,13 +701,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D104"/>
+  <dimension ref="A1:H104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -705,24 +717,48 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B2">
-        <v>-0.02129626531870283</v>
+        <v>0.01223624957904411</v>
       </c>
       <c r="C2">
-        <v>0.02156976689270611</v>
+        <v>-0.05119473726234818</v>
       </c>
       <c r="D2">
-        <v>-0.1058785329027375</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>0.1270804357382585</v>
+      </c>
+      <c r="E2">
+        <v>0.02178293192762889</v>
+      </c>
+      <c r="F2">
+        <v>0.03402034520255739</v>
+      </c>
+      <c r="G2">
+        <v>-0.117456635362255</v>
+      </c>
+      <c r="H2">
+        <v>0.08761387852531866</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -733,24 +769,48 @@
       <c r="D3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B4">
-        <v>-0.04391671951621792</v>
+        <v>0.01603700543187725</v>
       </c>
       <c r="C4">
-        <v>0.07152274333801048</v>
+        <v>-0.1072764593772191</v>
       </c>
       <c r="D4">
-        <v>-0.1159079434799322</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>0.1304408936695018</v>
+      </c>
+      <c r="E4">
+        <v>0.01202042093367421</v>
+      </c>
+      <c r="F4">
+        <v>0.09316685566593971</v>
+      </c>
+      <c r="G4">
+        <v>-0.001452735053439525</v>
+      </c>
+      <c r="H4">
+        <v>0.05264364391055365</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -761,164 +821,308 @@
       <c r="D5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B6">
-        <v>-0.02482397245787071</v>
+        <v>0.02815284687968471</v>
       </c>
       <c r="C6">
-        <v>0.01204645492283965</v>
+        <v>-0.03796073325444119</v>
       </c>
       <c r="D6">
-        <v>-0.1344179008405257</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>0.1214454526455198</v>
+      </c>
+      <c r="E6">
+        <v>0.05984241355949362</v>
+      </c>
+      <c r="F6">
+        <v>0.04641483300207496</v>
+      </c>
+      <c r="G6">
+        <v>0.01014839655234441</v>
+      </c>
+      <c r="H6">
+        <v>0.04384390592654097</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B7">
-        <v>-0.001415022257131663</v>
+        <v>0.008030543190448516</v>
       </c>
       <c r="C7">
-        <v>0.02251458766851733</v>
+        <v>-0.03781704567478146</v>
       </c>
       <c r="D7">
-        <v>-0.1076359927956453</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>0.09552548023983319</v>
+      </c>
+      <c r="E7">
+        <v>0.055472719426377</v>
+      </c>
+      <c r="F7">
+        <v>0.009674423348822295</v>
+      </c>
+      <c r="G7">
+        <v>0.0189817342430491</v>
+      </c>
+      <c r="H7">
+        <v>0.07586443636402156</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B8">
-        <v>0.001415141028616339</v>
+        <v>-0.008510516073329239</v>
       </c>
       <c r="C8">
-        <v>0.02605832941687534</v>
+        <v>-0.03622429060676505</v>
       </c>
       <c r="D8">
-        <v>-0.07863061088509725</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>0.0745513546544036</v>
+      </c>
+      <c r="E8">
+        <v>0.03778701818986937</v>
+      </c>
+      <c r="F8">
+        <v>0.05046455881534086</v>
+      </c>
+      <c r="G8">
+        <v>-0.0587871532063131</v>
+      </c>
+      <c r="H8">
+        <v>0.01567512839164939</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B9">
-        <v>-0.03558712450773929</v>
+        <v>0.01197447911116064</v>
       </c>
       <c r="C9">
-        <v>0.06052980920175225</v>
+        <v>-0.08825033412369483</v>
       </c>
       <c r="D9">
-        <v>-0.12000921624131</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>0.1122103401667103</v>
+      </c>
+      <c r="E9">
+        <v>0.0134757831906586</v>
+      </c>
+      <c r="F9">
+        <v>0.06212492374394255</v>
+      </c>
+      <c r="G9">
+        <v>0.02069746290035738</v>
+      </c>
+      <c r="H9">
+        <v>0.06011940542658634</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B10">
-        <v>-0.1755249447526845</v>
+        <v>0.2427940711273891</v>
       </c>
       <c r="C10">
-        <v>-0.1695824626814338</v>
+        <v>0.08772785927343901</v>
       </c>
       <c r="D10">
-        <v>0.004692430091568522</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>-0.003502633153611758</v>
+      </c>
+      <c r="E10">
+        <v>-0.0110429609037115</v>
+      </c>
+      <c r="F10">
+        <v>0.0431182671041556</v>
+      </c>
+      <c r="G10">
+        <v>0.001003110515421987</v>
+      </c>
+      <c r="H10">
+        <v>-0.03393251575339701</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B11">
-        <v>-0.01954781302848172</v>
+        <v>0.009468389706205928</v>
       </c>
       <c r="C11">
-        <v>0.04172485665739514</v>
+        <v>-0.0588955262747082</v>
       </c>
       <c r="D11">
-        <v>-0.0459716772608183</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>0.04049676407070556</v>
+      </c>
+      <c r="E11">
+        <v>0.02074706056279797</v>
+      </c>
+      <c r="F11">
+        <v>-0.01379274633369951</v>
+      </c>
+      <c r="G11">
+        <v>0.01663848846668416</v>
+      </c>
+      <c r="H11">
+        <v>0.0508173930093086</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B12">
-        <v>-0.01897249958051831</v>
+        <v>0.009520593875524643</v>
       </c>
       <c r="C12">
-        <v>0.04132290149085414</v>
+        <v>-0.05090073428185696</v>
       </c>
       <c r="D12">
-        <v>-0.05868787544558396</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>0.04492694660877453</v>
+      </c>
+      <c r="E12">
+        <v>0.01610600167392539</v>
+      </c>
+      <c r="F12">
+        <v>-0.01687120146020113</v>
+      </c>
+      <c r="G12">
+        <v>0.03467470859075248</v>
+      </c>
+      <c r="H12">
+        <v>0.06540060285391162</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B13">
-        <v>-0.003582411978758077</v>
+        <v>-0.004313644152271202</v>
       </c>
       <c r="C13">
-        <v>0.02337393014896428</v>
+        <v>-0.04974353911610753</v>
       </c>
       <c r="D13">
-        <v>-0.134606562416494</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>0.1471378038735175</v>
+      </c>
+      <c r="E13">
+        <v>0.0410398106629864</v>
+      </c>
+      <c r="F13">
+        <v>0.03637237016566013</v>
+      </c>
+      <c r="G13">
+        <v>-0.01209609904517474</v>
+      </c>
+      <c r="H13">
+        <v>0.07636729844741126</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B14">
-        <v>0.00384140374644096</v>
+        <v>0.002003431857158574</v>
       </c>
       <c r="C14">
-        <v>0.01595654408135408</v>
+        <v>-0.0327784913498949</v>
       </c>
       <c r="D14">
-        <v>-0.09195637437407904</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>0.0988766623306499</v>
+      </c>
+      <c r="E14">
+        <v>0.05138455477869491</v>
+      </c>
+      <c r="F14">
+        <v>0.0374289000277396</v>
+      </c>
+      <c r="G14">
+        <v>0.001598241345728196</v>
+      </c>
+      <c r="H14">
+        <v>0.1388264456524914</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B15">
-        <v>0.002822712606413424</v>
+        <v>-0.003112004458720178</v>
       </c>
       <c r="C15">
-        <v>0.01064225071939035</v>
+        <v>-0.02825717908363421</v>
       </c>
       <c r="D15">
-        <v>-0.0333241469840549</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>0.06158207733256291</v>
+      </c>
+      <c r="E15">
+        <v>0.01221977239068639</v>
+      </c>
+      <c r="F15">
+        <v>0.008572278335528467</v>
+      </c>
+      <c r="G15">
+        <v>-0.01188567079725894</v>
+      </c>
+      <c r="H15">
+        <v>0.04490275259715132</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B16">
-        <v>-0.0181696722854926</v>
+        <v>0.008725938030610645</v>
       </c>
       <c r="C16">
-        <v>0.03743945242056735</v>
+        <v>-0.05123730888605476</v>
       </c>
       <c r="D16">
-        <v>-0.05301868501988541</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>0.04315875771003847</v>
+      </c>
+      <c r="E16">
+        <v>0.02322079106947239</v>
+      </c>
+      <c r="F16">
+        <v>-0.008579506015394743</v>
+      </c>
+      <c r="G16">
+        <v>0.0265864836125826</v>
+      </c>
+      <c r="H16">
+        <v>0.04654003678368891</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -929,10 +1133,22 @@
       <c r="D17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -943,122 +1159,230 @@
       <c r="D18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B19">
-        <v>-0.002343834523737351</v>
+        <v>-0.001152313377283944</v>
       </c>
       <c r="C19">
-        <v>0.0190562713223625</v>
+        <v>-0.01715733224880108</v>
       </c>
       <c r="D19">
-        <v>-0.08984882517592385</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
+        <v>0.05959989300839697</v>
+      </c>
+      <c r="E19">
+        <v>-0.01142103059908056</v>
+      </c>
+      <c r="F19">
+        <v>0.01583771628239691</v>
+      </c>
+      <c r="G19">
+        <v>-0.01047483802926582</v>
+      </c>
+      <c r="H19">
+        <v>0.05468205682514066</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" s="1" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B20">
-        <v>-0.003276826254583932</v>
+        <v>0.004300892325848587</v>
       </c>
       <c r="C20">
-        <v>0.02512193136694282</v>
+        <v>-0.04283092865453961</v>
       </c>
       <c r="D20">
-        <v>-0.07907374072158013</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>0.08744787976214959</v>
+      </c>
+      <c r="E20">
+        <v>0.02440362344722691</v>
+      </c>
+      <c r="F20">
+        <v>0.02725798918867244</v>
+      </c>
+      <c r="G20">
+        <v>0.01738428870991149</v>
+      </c>
+      <c r="H20">
+        <v>0.05674404028837024</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" s="1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B21">
-        <v>-0.005636006917824519</v>
+        <v>0.002499161988757511</v>
       </c>
       <c r="C21">
-        <v>0.02663545722227121</v>
+        <v>-0.04652456565507992</v>
       </c>
       <c r="D21">
-        <v>-0.1510491731573426</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>0.1299480930464273</v>
+      </c>
+      <c r="E21">
+        <v>0.03294020199004588</v>
+      </c>
+      <c r="F21">
+        <v>0.1012693736938939</v>
+      </c>
+      <c r="G21">
+        <v>-0.008854774436108655</v>
+      </c>
+      <c r="H21">
+        <v>0.2006309763471804</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B22">
-        <v>-0.0006598236551640784</v>
+        <v>-0.01493194659314771</v>
       </c>
       <c r="C22">
-        <v>0.06592126437115511</v>
+        <v>-0.08792518515903602</v>
       </c>
       <c r="D22">
-        <v>-0.2614974118668354</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>0.2627815708974547</v>
+      </c>
+      <c r="E22">
+        <v>0.06171207048100432</v>
+      </c>
+      <c r="F22">
+        <v>0.009341138432065361</v>
+      </c>
+      <c r="G22">
+        <v>-0.4068929682376691</v>
+      </c>
+      <c r="H22">
+        <v>-0.3808510714788996</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23" s="1" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B23">
-        <v>-0.0009591960128379251</v>
+        <v>-0.01171869877311116</v>
       </c>
       <c r="C23">
-        <v>0.06639488467947618</v>
+        <v>-0.08970421705533776</v>
       </c>
       <c r="D23">
-        <v>-0.2610029985026789</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>0.2654793911115911</v>
+      </c>
+      <c r="E23">
+        <v>0.05686004643458756</v>
+      </c>
+      <c r="F23">
+        <v>0.01267187025524021</v>
+      </c>
+      <c r="G23">
+        <v>-0.3942795403207544</v>
+      </c>
+      <c r="H23">
+        <v>-0.3657696301136543</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B24">
-        <v>-0.02369624849337374</v>
+        <v>0.009269310860852756</v>
       </c>
       <c r="C24">
-        <v>0.05720809487372672</v>
+        <v>-0.06742165505978362</v>
       </c>
       <c r="D24">
-        <v>-0.06097081330469457</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>0.04581055067629046</v>
+      </c>
+      <c r="E24">
+        <v>0.02960977933094781</v>
+      </c>
+      <c r="F24">
+        <v>-0.004882732541964733</v>
+      </c>
+      <c r="G24">
+        <v>0.01565873261357111</v>
+      </c>
+      <c r="H24">
+        <v>0.07139128287083135</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
       <c r="A25" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B25">
-        <v>-0.0243791832753395</v>
+        <v>0.01347897531048906</v>
       </c>
       <c r="C25">
-        <v>0.04848351351297179</v>
+        <v>-0.06186097499195557</v>
       </c>
       <c r="D25">
-        <v>-0.0571851974638794</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>0.04906629319938729</v>
+      </c>
+      <c r="E25">
+        <v>0.01509535991135867</v>
+      </c>
+      <c r="F25">
+        <v>-0.005471613280661301</v>
+      </c>
+      <c r="G25">
+        <v>0.01763306240666489</v>
+      </c>
+      <c r="H25">
+        <v>0.03774180514644346</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
       <c r="A26" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B26">
-        <v>-0.009879579056487738</v>
+        <v>0.01544557462918481</v>
       </c>
       <c r="C26">
-        <v>0.01476874268528197</v>
+        <v>-0.03033812656955849</v>
       </c>
       <c r="D26">
-        <v>-0.08248025313281486</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>0.06759897744661637</v>
+      </c>
+      <c r="E26">
+        <v>0.04210547681708022</v>
+      </c>
+      <c r="F26">
+        <v>0.04505179087406812</v>
+      </c>
+      <c r="G26">
+        <v>0.01120069932514492</v>
+      </c>
+      <c r="H26">
+        <v>0.1027836036989938</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
       <c r="A27" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1069,136 +1393,256 @@
       <c r="D27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
       <c r="A28" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B28">
-        <v>-0.2612719162079531</v>
+        <v>0.3209225764844249</v>
       </c>
       <c r="C28">
-        <v>-0.1945578648382903</v>
+        <v>0.08615621347611281</v>
       </c>
       <c r="D28">
-        <v>-0.01260130923255618</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>-0.01728519665608356</v>
+      </c>
+      <c r="E28">
+        <v>-0.04996378101655258</v>
+      </c>
+      <c r="F28">
+        <v>0.04579987449206342</v>
+      </c>
+      <c r="G28">
+        <v>-0.05362998567559889</v>
+      </c>
+      <c r="H28">
+        <v>-0.002439049344103837</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
       <c r="A29" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B29">
-        <v>-0.0003569187132445204</v>
+        <v>0.001616233712205248</v>
       </c>
       <c r="C29">
-        <v>0.01998034612326555</v>
+        <v>-0.03902826378422918</v>
       </c>
       <c r="D29">
-        <v>-0.09385559994833323</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>0.1030401391714766</v>
+      </c>
+      <c r="E29">
+        <v>0.05776640405806225</v>
+      </c>
+      <c r="F29">
+        <v>0.04257207024145442</v>
+      </c>
+      <c r="G29">
+        <v>0.01511879283812057</v>
+      </c>
+      <c r="H29">
+        <v>0.1452510855466655</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
       <c r="A30" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B30">
-        <v>-0.02545917285336825</v>
+        <v>0.01361954823365125</v>
       </c>
       <c r="C30">
-        <v>0.06153740366777919</v>
+        <v>-0.09113505920055207</v>
       </c>
       <c r="D30">
-        <v>-0.1541285751692315</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>0.13903597454886</v>
+      </c>
+      <c r="E30">
+        <v>0.05410691956162336</v>
+      </c>
+      <c r="F30">
+        <v>0.02577773389929981</v>
+      </c>
+      <c r="G30">
+        <v>-0.02010641865545093</v>
+      </c>
+      <c r="H30">
+        <v>0.0479051738148455</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
       <c r="A31" s="1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B31">
-        <v>-0.03566763968547686</v>
+        <v>0.006674563547385054</v>
       </c>
       <c r="C31">
-        <v>0.08472106606706217</v>
+        <v>-0.09484322231672183</v>
       </c>
       <c r="D31">
-        <v>-0.0661235984669884</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>0.03986329896742669</v>
+      </c>
+      <c r="E31">
+        <v>0.0210719242752353</v>
+      </c>
+      <c r="F31">
+        <v>0.0149783149519865</v>
+      </c>
+      <c r="G31">
+        <v>0.007287762453323186</v>
+      </c>
+      <c r="H31">
+        <v>0.04976730570763732</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
       <c r="A32" s="1" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="B32">
-        <v>-0.01571039005986695</v>
+        <v>0.008427548584269614</v>
       </c>
       <c r="C32">
-        <v>0.03403071875841476</v>
+        <v>-0.04889980974860526</v>
       </c>
       <c r="D32">
-        <v>-0.06972552298406798</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>0.09246294847075834</v>
+      </c>
+      <c r="E32">
+        <v>-0.001509833625631783</v>
+      </c>
+      <c r="F32">
+        <v>0.04989635163977193</v>
+      </c>
+      <c r="G32">
+        <v>-0.0115362407634092</v>
+      </c>
+      <c r="H32">
+        <v>0.04574739487413544</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
       <c r="A33" s="1" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B33">
-        <v>-0.008122863115734081</v>
+        <v>0.004218487904425476</v>
       </c>
       <c r="C33">
-        <v>0.04112692893306274</v>
+        <v>-0.06162611457552968</v>
       </c>
       <c r="D33">
-        <v>-0.1281017884195753</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>0.1199116776810914</v>
+      </c>
+      <c r="E33">
+        <v>0.03008558447335625</v>
+      </c>
+      <c r="F33">
+        <v>0.02629729143481438</v>
+      </c>
+      <c r="G33">
+        <v>0.009292460402988341</v>
+      </c>
+      <c r="H33">
+        <v>0.06338909537737827</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
       <c r="A34" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B34">
-        <v>-0.02114088892532499</v>
+        <v>0.007036382891004949</v>
       </c>
       <c r="C34">
-        <v>0.05899195956067223</v>
+        <v>-0.06235616846090888</v>
       </c>
       <c r="D34">
-        <v>-0.05317280877623331</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>0.0264479001868431</v>
+      </c>
+      <c r="E34">
+        <v>0.02932244406568007</v>
+      </c>
+      <c r="F34">
+        <v>-0.04011858859009825</v>
+      </c>
+      <c r="G34">
+        <v>0.01772075786099789</v>
+      </c>
+      <c r="H34">
+        <v>0.05201792778532412</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
       <c r="A35" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B35">
-        <v>0</v>
+        <v>0.002267652249607571</v>
       </c>
       <c r="C35">
-        <v>0</v>
+        <v>-0.01193267574119356</v>
       </c>
       <c r="D35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
+        <v>0.03362026885728205</v>
+      </c>
+      <c r="E35">
+        <v>0.004196384765695039</v>
+      </c>
+      <c r="F35">
+        <v>0.01872432242470522</v>
+      </c>
+      <c r="G35">
+        <v>0.008951262930093825</v>
+      </c>
+      <c r="H35">
+        <v>0.05561369112702454</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
       <c r="A36" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B36">
-        <v>-0.007042983405362709</v>
+        <v>0.01114914232899052</v>
       </c>
       <c r="C36">
-        <v>0.006163824068657814</v>
+        <v>-0.02289286919693302</v>
       </c>
       <c r="D36">
-        <v>-0.0814399224687285</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>0.07489807984058686</v>
+      </c>
+      <c r="E36">
+        <v>0.02883230142638837</v>
+      </c>
+      <c r="F36">
+        <v>0.05043629611774018</v>
+      </c>
+      <c r="G36">
+        <v>0.005225851326137198</v>
+      </c>
+      <c r="H36">
+        <v>0.06715031162295407</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
       <c r="A37" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1209,66 +1653,126 @@
       <c r="D37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:4">
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
       <c r="A38" s="1" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B38">
-        <v>-0.006229464962686796</v>
+        <v>0.01140469227680995</v>
       </c>
       <c r="C38">
-        <v>0.006777077361191484</v>
+        <v>-0.02589303034468812</v>
       </c>
       <c r="D38">
-        <v>-0.08418367869743876</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
+        <v>0.08553297115559938</v>
+      </c>
+      <c r="E38">
+        <v>0.006443820750483852</v>
+      </c>
+      <c r="F38">
+        <v>0.002471033731017473</v>
+      </c>
+      <c r="G38">
+        <v>-0.01665866459499773</v>
+      </c>
+      <c r="H38">
+        <v>0.07103267328675099</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
       <c r="A39" s="1" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B39">
-        <v>-0.01717470891444233</v>
+        <v>0.003471785679119844</v>
       </c>
       <c r="C39">
-        <v>0.05868200467485415</v>
+        <v>-0.07891882180424328</v>
       </c>
       <c r="D39">
-        <v>-0.1099396022919797</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>0.0886619186198136</v>
+      </c>
+      <c r="E39">
+        <v>0.0520620576271924</v>
+      </c>
+      <c r="F39">
+        <v>-0.006119721738871523</v>
+      </c>
+      <c r="G39">
+        <v>0.02300401608360293</v>
+      </c>
+      <c r="H39">
+        <v>0.100864126272819</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
       <c r="A40" s="1" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B40">
-        <v>-0.0153543603309315</v>
+        <v>0.0119422125849462</v>
       </c>
       <c r="C40">
-        <v>0.02288827761642083</v>
+        <v>-0.03870687008045478</v>
       </c>
       <c r="D40">
-        <v>-0.1137764422601918</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>0.09756864783223748</v>
+      </c>
+      <c r="E40">
+        <v>0.04038201046658439</v>
+      </c>
+      <c r="F40">
+        <v>-0.008466700347797802</v>
+      </c>
+      <c r="G40">
+        <v>-0.060174590686226</v>
+      </c>
+      <c r="H40">
+        <v>0.1116628826109822</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
       <c r="A41" s="1" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B41">
-        <v>-0.01016422343869372</v>
+        <v>0.01515293019442208</v>
       </c>
       <c r="C41">
-        <v>0.003823179476659879</v>
+        <v>-0.0199139087232287</v>
       </c>
       <c r="D41">
-        <v>-0.03645911819860091</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>0.04446029117397286</v>
+      </c>
+      <c r="E41">
+        <v>-0.004685795837428589</v>
+      </c>
+      <c r="F41">
+        <v>0.02484751980750223</v>
+      </c>
+      <c r="G41">
+        <v>-5.353022816857119e-05</v>
+      </c>
+      <c r="H41">
+        <v>0.04647632837847243</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
       <c r="A42" s="1" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1279,38 +1783,74 @@
       <c r="D42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:4">
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+      <c r="H42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
       <c r="A43" s="1" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B43">
-        <v>-0.001224044398839639</v>
+        <v>0.00769593890573642</v>
       </c>
       <c r="C43">
-        <v>0.003631772365834212</v>
+        <v>-0.0162168874996463</v>
       </c>
       <c r="D43">
-        <v>-0.05142519599561834</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>0.0521547245182648</v>
+      </c>
+      <c r="E43">
+        <v>0.01221905073560866</v>
+      </c>
+      <c r="F43">
+        <v>0.02177625125530136</v>
+      </c>
+      <c r="G43">
+        <v>-0.0009370683766455545</v>
+      </c>
+      <c r="H43">
+        <v>0.05715185064120655</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
       <c r="A44" s="1" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B44">
-        <v>-0.01771468503712957</v>
+        <v>0.01114914270571601</v>
       </c>
       <c r="C44">
-        <v>0.02527977045373425</v>
+        <v>-0.05018589770932091</v>
       </c>
       <c r="D44">
-        <v>-0.08812526846920102</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>0.1015311242481416</v>
+      </c>
+      <c r="E44">
+        <v>0.03645252800204198</v>
+      </c>
+      <c r="F44">
+        <v>0.03658957241828855</v>
+      </c>
+      <c r="G44">
+        <v>-0.02828187840151671</v>
+      </c>
+      <c r="H44">
+        <v>0.05378301594390762</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
       <c r="A45" s="1" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1321,52 +1861,100 @@
       <c r="D45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:4">
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
       <c r="A46" s="1" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="B46">
-        <v>-0.007272509486636376</v>
+        <v>-0.0007451793465627456</v>
       </c>
       <c r="C46">
-        <v>0.02921995226656639</v>
+        <v>-0.04300782111693123</v>
       </c>
       <c r="D46">
-        <v>-0.08294133890788517</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>0.07116055197310076</v>
+      </c>
+      <c r="E46">
+        <v>0.04326347447107415</v>
+      </c>
+      <c r="F46">
+        <v>0.03416118829752988</v>
+      </c>
+      <c r="G46">
+        <v>-0.001733348100675611</v>
+      </c>
+      <c r="H46">
+        <v>0.1334850443965024</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
       <c r="A47" s="1" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="B47">
-        <v>-0.07867694819539539</v>
+        <v>0.02998113584185744</v>
       </c>
       <c r="C47">
-        <v>0.1077122220685706</v>
+        <v>-0.1283350776752185</v>
       </c>
       <c r="D47">
-        <v>-0.05427145754904539</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>0.02363645352448962</v>
+      </c>
+      <c r="E47">
+        <v>-0.009546089835514632</v>
+      </c>
+      <c r="F47">
+        <v>-0.002899075791376898</v>
+      </c>
+      <c r="G47">
+        <v>0.04744511470371936</v>
+      </c>
+      <c r="H47">
+        <v>0.05777243061186127</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
       <c r="A48" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="B48">
-        <v>-0.01069054593082687</v>
+        <v>0.01365306740098486</v>
       </c>
       <c r="C48">
-        <v>0.01667539704019791</v>
+        <v>-0.03456835503420347</v>
       </c>
       <c r="D48">
-        <v>-0.08068369789973616</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>0.07753904334065582</v>
+      </c>
+      <c r="E48">
+        <v>0.0212972681196074</v>
+      </c>
+      <c r="F48">
+        <v>0.05879929075250093</v>
+      </c>
+      <c r="G48">
+        <v>0.003118925160536835</v>
+      </c>
+      <c r="H48">
+        <v>0.1097523459550025</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
       <c r="A49" s="1" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1377,38 +1965,74 @@
       <c r="D49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:4">
+      <c r="E49">
+        <v>0</v>
+      </c>
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+      <c r="H49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
       <c r="A50" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="B50">
-        <v>-0.03223722903284938</v>
+        <v>0.01072647722167184</v>
       </c>
       <c r="C50">
-        <v>0.05795228341140402</v>
+        <v>-0.07589996404785639</v>
       </c>
       <c r="D50">
-        <v>-0.06068414973555085</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>0.0489146529531117</v>
+      </c>
+      <c r="E50">
+        <v>0.01535252070153012</v>
+      </c>
+      <c r="F50">
+        <v>0.008533793858041844</v>
+      </c>
+      <c r="G50">
+        <v>-0.00183112839613007</v>
+      </c>
+      <c r="H50">
+        <v>0.03819115397718281</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
       <c r="A51" s="1" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="B51">
-        <v>0.002030108730977202</v>
+        <v>-0.001343127937762825</v>
       </c>
       <c r="C51">
-        <v>0.005446696308008462</v>
+        <v>-0.01764101406192877</v>
       </c>
       <c r="D51">
-        <v>-0.0549006453560798</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
+        <v>0.05558382538128939</v>
+      </c>
+      <c r="E51">
+        <v>0.03728407770050783</v>
+      </c>
+      <c r="F51">
+        <v>0.04067585847855372</v>
+      </c>
+      <c r="G51">
+        <v>-0.0208213815275558</v>
+      </c>
+      <c r="H51">
+        <v>0.05262417960214883</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
       <c r="A52" s="1" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1419,66 +2043,126 @@
       <c r="D52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:4">
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
       <c r="A53" s="1" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="B53">
-        <v>-0.1058842679892818</v>
+        <v>0.05020273115561377</v>
       </c>
       <c r="C53">
-        <v>0.1260166958186097</v>
+        <v>-0.1574680053681233</v>
       </c>
       <c r="D53">
-        <v>-0.003242419162399137</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>-0.0235289891620466</v>
+      </c>
+      <c r="E53">
+        <v>-0.02866347607564915</v>
+      </c>
+      <c r="F53">
+        <v>0.04947432423356413</v>
+      </c>
+      <c r="G53">
+        <v>0.002177059716906365</v>
+      </c>
+      <c r="H53">
+        <v>0.01150798408783172</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
       <c r="A54" s="1" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="B54">
-        <v>-0.01001927975462953</v>
+        <v>0.009138609604008318</v>
       </c>
       <c r="C54">
-        <v>0.02015844409993971</v>
+        <v>-0.03841769320532508</v>
       </c>
       <c r="D54">
-        <v>-0.0873584334568744</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>0.07636820582201533</v>
+      </c>
+      <c r="E54">
+        <v>0.01806511352788267</v>
+      </c>
+      <c r="F54">
+        <v>0.002448759605196679</v>
+      </c>
+      <c r="G54">
+        <v>-0.008123289728245772</v>
+      </c>
+      <c r="H54">
+        <v>0.08265463937781481</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
       <c r="A55" s="1" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="B55">
-        <v>-0.09287584293199541</v>
+        <v>0.03898626262454771</v>
       </c>
       <c r="C55">
-        <v>0.1069446657621612</v>
+        <v>-0.1313869897071947</v>
       </c>
       <c r="D55">
-        <v>-0.004725287878446984</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>-0.03320359794282039</v>
+      </c>
+      <c r="E55">
+        <v>0.006188865426678685</v>
+      </c>
+      <c r="F55">
+        <v>0.01163583773162607</v>
+      </c>
+      <c r="G55">
+        <v>-0.001180066641070207</v>
+      </c>
+      <c r="H55">
+        <v>0.01594308065955303</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
       <c r="A56" s="1" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="B56">
-        <v>-0.1322338496794503</v>
+        <v>0.05397351408311676</v>
       </c>
       <c r="C56">
-        <v>0.1454079603962452</v>
+        <v>-0.1913020008470084</v>
       </c>
       <c r="D56">
-        <v>-0.001009431692151372</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+        <v>-0.03358868304799056</v>
+      </c>
+      <c r="E56">
+        <v>-0.03025444263507618</v>
+      </c>
+      <c r="F56">
+        <v>0.01471467883294851</v>
+      </c>
+      <c r="G56">
+        <v>-0.04796565040820831</v>
+      </c>
+      <c r="H56">
+        <v>0.01481370481237796</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
       <c r="A57" s="1" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1489,66 +2173,126 @@
       <c r="D57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:4">
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+      <c r="H57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
       <c r="A58" s="1" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="B58">
-        <v>0.008219841289385297</v>
+        <v>0.003161175196107926</v>
       </c>
       <c r="C58">
-        <v>0.009937673886603432</v>
+        <v>-0.05739024762855405</v>
       </c>
       <c r="D58">
-        <v>-0.2106322227454865</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>0.285275197084277</v>
+      </c>
+      <c r="E58">
+        <v>0.02100194022104894</v>
+      </c>
+      <c r="F58">
+        <v>0.1124419391591909</v>
+      </c>
+      <c r="G58">
+        <v>-0.1529496030609307</v>
+      </c>
+      <c r="H58">
+        <v>-0.09253193062755583</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
       <c r="A59" s="1" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="B59">
-        <v>-0.1841599433087488</v>
+        <v>0.255008386255841</v>
       </c>
       <c r="C59">
-        <v>-0.1450256963229361</v>
+        <v>0.05667289181300922</v>
       </c>
       <c r="D59">
-        <v>-0.0424808960945106</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>0.05679192615285234</v>
+      </c>
+      <c r="E59">
+        <v>-0.02118212869971115</v>
+      </c>
+      <c r="F59">
+        <v>0.02373621266655187</v>
+      </c>
+      <c r="G59">
+        <v>-0.008368669709717211</v>
+      </c>
+      <c r="H59">
+        <v>0.00362583046784039</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
       <c r="A60" s="1" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="B60">
-        <v>-0.1840466747151634</v>
+        <v>0.1470290619845575</v>
       </c>
       <c r="C60">
-        <v>0.1049846096794635</v>
+        <v>-0.1759836521284718</v>
       </c>
       <c r="D60">
-        <v>-0.2317451094021988</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+        <v>0.09413812570243979</v>
+      </c>
+      <c r="E60">
+        <v>0.1605206054859484</v>
+      </c>
+      <c r="F60">
+        <v>-0.2223373796479808</v>
+      </c>
+      <c r="G60">
+        <v>0.2186179624385384</v>
+      </c>
+      <c r="H60">
+        <v>-0.2397928918487535</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
       <c r="A61" s="1" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="B61">
-        <v>-0.0254275579815734</v>
+        <v>0.01056547770004454</v>
       </c>
       <c r="C61">
-        <v>0.0531345060306033</v>
+        <v>-0.074935558816625</v>
       </c>
       <c r="D61">
-        <v>-0.09037557062219467</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>0.0720339484979063</v>
+      </c>
+      <c r="E61">
+        <v>0.03872583359285229</v>
+      </c>
+      <c r="F61">
+        <v>-0.01440012064645051</v>
+      </c>
+      <c r="G61">
+        <v>0.03799478509100828</v>
+      </c>
+      <c r="H61">
+        <v>0.08591505087216608</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8">
       <c r="A62" s="1" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1559,108 +2303,204 @@
       <c r="D62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:4">
+      <c r="E62">
+        <v>0</v>
+      </c>
+      <c r="F62">
+        <v>0</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+      <c r="H62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
       <c r="A63" s="1" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="B63">
-        <v>-0.007362815291924518</v>
+        <v>0.008827498877948585</v>
       </c>
       <c r="C63">
-        <v>0.02367239362630582</v>
+        <v>-0.03777337185402684</v>
       </c>
       <c r="D63">
-        <v>-0.09678153907363274</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+        <v>0.06803576208261232</v>
+      </c>
+      <c r="E63">
+        <v>0.05876411495321641</v>
+      </c>
+      <c r="F63">
+        <v>0.02677341818057703</v>
+      </c>
+      <c r="G63">
+        <v>0.008341630958204683</v>
+      </c>
+      <c r="H63">
+        <v>0.0713176505511537</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8">
       <c r="A64" s="1" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="B64">
-        <v>-0.056026634660402</v>
+        <v>0.0147311940890885</v>
       </c>
       <c r="C64">
-        <v>0.08630863065417033</v>
+        <v>-0.1057502418156677</v>
       </c>
       <c r="D64">
-        <v>-0.01748082191348466</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>0.005043016745108869</v>
+      </c>
+      <c r="E64">
+        <v>0.02353119126450714</v>
+      </c>
+      <c r="F64">
+        <v>0.01078138305283374</v>
+      </c>
+      <c r="G64">
+        <v>0.04795505725343828</v>
+      </c>
+      <c r="H64">
+        <v>0.06653281644195064</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8">
       <c r="A65" s="1" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="B65">
-        <v>-0.02593982945906627</v>
+        <v>0.02046526278290653</v>
       </c>
       <c r="C65">
-        <v>0.01598215028485196</v>
+        <v>-0.04514199935043294</v>
       </c>
       <c r="D65">
-        <v>-0.1091792756100149</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+        <v>0.1132288482802576</v>
+      </c>
+      <c r="E65">
+        <v>0.04408585385231362</v>
+      </c>
+      <c r="F65">
+        <v>-0.006760346284810914</v>
+      </c>
+      <c r="G65">
+        <v>0.02953654904479712</v>
+      </c>
+      <c r="H65">
+        <v>0.01500668134328303</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8">
       <c r="A66" s="1" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="B66">
-        <v>-0.02111470814649941</v>
+        <v>-3.355342256411426e-05</v>
       </c>
       <c r="C66">
-        <v>0.06746175168954274</v>
+        <v>-0.09704211937449544</v>
       </c>
       <c r="D66">
-        <v>-0.1198799425885237</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+        <v>0.115723239635909</v>
+      </c>
+      <c r="E66">
+        <v>0.04203576229264274</v>
+      </c>
+      <c r="F66">
+        <v>-0.01136417582984093</v>
+      </c>
+      <c r="G66">
+        <v>-0.003506566549143253</v>
+      </c>
+      <c r="H66">
+        <v>0.06748308235977094</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8">
       <c r="A67" s="1" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="B67">
-        <v>-0.0243755357224813</v>
+        <v>0.02128256715526825</v>
       </c>
       <c r="C67">
-        <v>0.02000666555440775</v>
+        <v>-0.036740591888454</v>
       </c>
       <c r="D67">
-        <v>-0.04439271023583662</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+        <v>0.04070646492407932</v>
+      </c>
+      <c r="E67">
+        <v>0.01182628582460593</v>
+      </c>
+      <c r="F67">
+        <v>-0.02721327530181825</v>
+      </c>
+      <c r="G67">
+        <v>-0.002180740542000613</v>
+      </c>
+      <c r="H67">
+        <v>0.06975546103761067</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8">
       <c r="A68" s="1" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="B68">
-        <v>-0.2053365501351278</v>
+        <v>0.2752215665685897</v>
       </c>
       <c r="C68">
-        <v>-0.1548491115551377</v>
+        <v>0.06401593076035726</v>
       </c>
       <c r="D68">
-        <v>-0.03268971718754054</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+        <v>0.02884942756299749</v>
+      </c>
+      <c r="E68">
+        <v>-0.004093540813609696</v>
+      </c>
+      <c r="F68">
+        <v>0.0272164860075342</v>
+      </c>
+      <c r="G68">
+        <v>-0.07037644972601528</v>
+      </c>
+      <c r="H68">
+        <v>-0.04633501913743161</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8">
       <c r="A69" s="1" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="B69">
-        <v>-0.05345853201074863</v>
+        <v>0.01490565764957106</v>
       </c>
       <c r="C69">
-        <v>0.1169409138601116</v>
+        <v>-0.1177802257801431</v>
       </c>
       <c r="D69">
-        <v>-0.07669879406630037</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+        <v>0.02773215608225135</v>
+      </c>
+      <c r="E69">
+        <v>0.009185802468765665</v>
+      </c>
+      <c r="F69">
+        <v>-0.007906574967974877</v>
+      </c>
+      <c r="G69">
+        <v>0.02702585636154098</v>
+      </c>
+      <c r="H69">
+        <v>0.04466533317899028</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8">
       <c r="A70" s="1" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -1671,360 +2511,672 @@
       <c r="D70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:4">
+      <c r="E70">
+        <v>0</v>
+      </c>
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+      <c r="H70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8">
       <c r="A71" s="1" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="B71">
-        <v>-0.215846472853023</v>
+        <v>0.2768515247214935</v>
       </c>
       <c r="C71">
-        <v>-0.178504810128102</v>
+        <v>0.07679167574908723</v>
       </c>
       <c r="D71">
-        <v>-0.01548284147539236</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
+        <v>0.0174493713519765</v>
+      </c>
+      <c r="E71">
+        <v>-0.002250416110965937</v>
+      </c>
+      <c r="F71">
+        <v>0.02107996137105277</v>
+      </c>
+      <c r="G71">
+        <v>-0.0391984397694117</v>
+      </c>
+      <c r="H71">
+        <v>0.01824664028684189</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8">
       <c r="A72" s="1" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="B72">
-        <v>-0.1010457345897288</v>
+        <v>0.05369336335376871</v>
       </c>
       <c r="C72">
-        <v>0.0785729857781559</v>
+        <v>-0.1284325879276868</v>
       </c>
       <c r="D72">
-        <v>-0.1128927009568968</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+        <v>0.05704242113274765</v>
+      </c>
+      <c r="E72">
+        <v>0.06872068174907812</v>
+      </c>
+      <c r="F72">
+        <v>-0.02510310571355087</v>
+      </c>
+      <c r="G72">
+        <v>0.04160410704663128</v>
+      </c>
+      <c r="H72">
+        <v>0.04898317959211381</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8">
       <c r="A73" s="1" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="B73">
-        <v>-0.1736085352904551</v>
+        <v>0.1374065668052912</v>
       </c>
       <c r="C73">
-        <v>0.07228156923532249</v>
+        <v>-0.1524436815102612</v>
       </c>
       <c r="D73">
-        <v>-0.2996747287445881</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
+        <v>0.0992251965908626</v>
+      </c>
+      <c r="E73">
+        <v>0.2825467495783778</v>
+      </c>
+      <c r="F73">
+        <v>-0.3116009149917056</v>
+      </c>
+      <c r="G73">
+        <v>0.3887877044730963</v>
+      </c>
+      <c r="H73">
+        <v>-0.1817288868486533</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8">
       <c r="A74" s="1" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="B74">
-        <v>-0.105915510323829</v>
+        <v>0.0474225648642446</v>
       </c>
       <c r="C74">
-        <v>0.115432904205444</v>
+        <v>-0.1445072296481374</v>
       </c>
       <c r="D74">
-        <v>0.01894950184899645</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+        <v>-0.04202127989489305</v>
+      </c>
+      <c r="E74">
+        <v>-0.0114929153981666</v>
+      </c>
+      <c r="F74">
+        <v>0.03532970607694796</v>
+      </c>
+      <c r="G74">
+        <v>0.007960183848318321</v>
+      </c>
+      <c r="H74">
+        <v>-0.01139634220264799</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8">
       <c r="A75" s="1" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="B75">
-        <v>-0.2293825539196925</v>
+        <v>0.101378253229348</v>
       </c>
       <c r="C75">
-        <v>0.200934129974549</v>
+        <v>-0.2684393453920862</v>
       </c>
       <c r="D75">
-        <v>0.1072346500657442</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
+        <v>-0.1349547388682174</v>
+      </c>
+      <c r="E75">
+        <v>-0.09301612425055737</v>
+      </c>
+      <c r="F75">
+        <v>-0.02696407781938808</v>
+      </c>
+      <c r="G75">
+        <v>-0.1008386161528426</v>
+      </c>
+      <c r="H75">
+        <v>0.02661839178046521</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8">
       <c r="A76" s="1" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="B76">
-        <v>-0.1351828570431376</v>
+        <v>0.05648785595063247</v>
       </c>
       <c r="C76">
-        <v>0.1402279759931406</v>
+        <v>-0.181650808976084</v>
       </c>
       <c r="D76">
-        <v>-0.004946776586870534</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4">
+        <v>-0.04357775141983136</v>
+      </c>
+      <c r="E76">
+        <v>-0.02059420024832657</v>
+      </c>
+      <c r="F76">
+        <v>0.002186602932501982</v>
+      </c>
+      <c r="G76">
+        <v>-0.03254364216348516</v>
+      </c>
+      <c r="H76">
+        <v>0.03704426458508493</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8">
       <c r="A77" s="1" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="B77">
-        <v>-0.02004415486351675</v>
+        <v>-0.0008045020876122485</v>
       </c>
       <c r="C77">
-        <v>0.06887947691119128</v>
+        <v>-0.1074747500110152</v>
       </c>
       <c r="D77">
-        <v>0.04935186184193587</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
+        <v>0.3216572096218404</v>
+      </c>
+      <c r="E77">
+        <v>-0.8428465994899187</v>
+      </c>
+      <c r="F77">
+        <v>-0.2153686101416591</v>
+      </c>
+      <c r="G77">
+        <v>0.1972358345660032</v>
+      </c>
+      <c r="H77">
+        <v>-0.1478079128934877</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8">
       <c r="A78" s="1" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="B78">
-        <v>-0.02897379159477401</v>
+        <v>0.01498765812322517</v>
       </c>
       <c r="C78">
-        <v>0.07168756059347804</v>
+        <v>-0.09375296614089201</v>
       </c>
       <c r="D78">
-        <v>-0.1451126479499665</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
+        <v>0.1120410444882605</v>
+      </c>
+      <c r="E78">
+        <v>0.06740490336255386</v>
+      </c>
+      <c r="F78">
+        <v>0.04546626690608452</v>
+      </c>
+      <c r="G78">
+        <v>-0.03786227703986293</v>
+      </c>
+      <c r="H78">
+        <v>0.03861049710199511</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8">
       <c r="A79" s="1" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="B79">
-        <v>-0.09766364807323506</v>
+        <v>0.03367293627676123</v>
       </c>
       <c r="C79">
-        <v>0.1800734091226774</v>
+        <v>-0.1964750278756784</v>
       </c>
       <c r="D79">
-        <v>0.1633142955037022</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
+        <v>-0.08704921416087423</v>
+      </c>
+      <c r="E79">
+        <v>-0.05489237156406308</v>
+      </c>
+      <c r="F79">
+        <v>0.7766293970607008</v>
+      </c>
+      <c r="G79">
+        <v>0.37128197412471</v>
+      </c>
+      <c r="H79">
+        <v>-0.3319549638063192</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8">
       <c r="A80" s="1" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="B80">
-        <v>-0.00464187373929348</v>
+        <v>0.003991834427852361</v>
       </c>
       <c r="C80">
-        <v>0.04477558509066775</v>
+        <v>-0.0458108252936805</v>
       </c>
       <c r="D80">
-        <v>-0.05179899067971654</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
+        <v>0.03985981837657189</v>
+      </c>
+      <c r="E80">
+        <v>0.0460016979711998</v>
+      </c>
+      <c r="F80">
+        <v>0.004185116773563828</v>
+      </c>
+      <c r="G80">
+        <v>-0.007110787631285362</v>
+      </c>
+      <c r="H80">
+        <v>0.02651379171634996</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8">
       <c r="A81" s="1" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="B81">
-        <v>-0.1171273149542505</v>
+        <v>0.04045453891455515</v>
       </c>
       <c r="C81">
-        <v>0.1358488805393222</v>
+        <v>-0.1661840566256138</v>
       </c>
       <c r="D81">
-        <v>0.07800221884790064</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
+        <v>-0.08200327819761465</v>
+      </c>
+      <c r="E81">
+        <v>-0.04859051074669129</v>
+      </c>
+      <c r="F81">
+        <v>0.06334775089329614</v>
+      </c>
+      <c r="G81">
+        <v>-0.04745102526707153</v>
+      </c>
+      <c r="H81">
+        <v>0.07495524279882367</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8">
       <c r="A82" s="1" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B82">
-        <v>-0.2453091493894476</v>
+        <v>0.08380226071204518</v>
       </c>
       <c r="C82">
-        <v>0.2981968630426265</v>
+        <v>-0.3180436157720767</v>
       </c>
       <c r="D82">
-        <v>0.2042149239848919</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
+        <v>-0.2455826599248414</v>
+      </c>
+      <c r="E82">
+        <v>-0.06312101148713349</v>
+      </c>
+      <c r="F82">
+        <v>-0.1118934067209958</v>
+      </c>
+      <c r="G82">
+        <v>-0.1000577633269843</v>
+      </c>
+      <c r="H82">
+        <v>0.106902211200731</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8">
       <c r="A83" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B83">
-        <v>0.00974402497125172</v>
+        <v>-0.01406466609817915</v>
       </c>
       <c r="C83">
-        <v>0.05086181988846827</v>
+        <v>-0.02633691409746956</v>
       </c>
       <c r="D83">
-        <v>0.006077547846712796</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
+        <v>0.03225077063704058</v>
+      </c>
+      <c r="E83">
+        <v>-0.08030358302453225</v>
+      </c>
+      <c r="F83">
+        <v>0.07315672101438069</v>
+      </c>
+      <c r="G83">
+        <v>-0.03160002312619542</v>
+      </c>
+      <c r="H83">
+        <v>0.09339288505623704</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8">
       <c r="A84" s="1" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="B84">
-        <v>-0.0008088881549133707</v>
+        <v>-0.002543566327866759</v>
       </c>
       <c r="C84">
-        <v>-0.0002176807876688757</v>
+        <v>-0.01723425615654241</v>
       </c>
       <c r="D84">
-        <v>-0.008523424660773497</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4">
+        <v>0.04302753225525196</v>
+      </c>
+      <c r="E84">
+        <v>-0.0009976647531039682</v>
+      </c>
+      <c r="F84">
+        <v>0.03411768548908333</v>
+      </c>
+      <c r="G84">
+        <v>-0.04818611053183265</v>
+      </c>
+      <c r="H84">
+        <v>0.03478568503529778</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8">
       <c r="A85" s="1" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="B85">
-        <v>-0.1382905895931197</v>
+        <v>0.05367599514142194</v>
       </c>
       <c r="C85">
-        <v>0.1400280474528613</v>
+        <v>-0.1831362493757495</v>
       </c>
       <c r="D85">
-        <v>0.04799384289707505</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
+        <v>-0.09921469181996813</v>
+      </c>
+      <c r="E85">
+        <v>-9.486476417585923e-05</v>
+      </c>
+      <c r="F85">
+        <v>0.07243981623664686</v>
+      </c>
+      <c r="G85">
+        <v>-0.02212967076469027</v>
+      </c>
+      <c r="H85">
+        <v>-0.004516143079776094</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8">
       <c r="A86" s="1" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="B86">
-        <v>-0.01406994128468289</v>
+        <v>0.01107287156598313</v>
       </c>
       <c r="C86">
-        <v>0.01375471091145973</v>
+        <v>-0.03541612630901388</v>
       </c>
       <c r="D86">
-        <v>-0.0876185298049498</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
+        <v>0.1099839635893487</v>
+      </c>
+      <c r="E86">
+        <v>-0.01262756158862045</v>
+      </c>
+      <c r="F86">
+        <v>0.002082734784793767</v>
+      </c>
+      <c r="G86">
+        <v>0.02340597236237466</v>
+      </c>
+      <c r="H86">
+        <v>0.03267639745607474</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8">
       <c r="A87" s="1" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="B87">
-        <v>-0.02085103630407778</v>
+        <v>0.01251133329845564</v>
       </c>
       <c r="C87">
-        <v>0.0276755607981495</v>
+        <v>-0.0612768198142836</v>
       </c>
       <c r="D87">
-        <v>-0.1284248907381778</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
+        <v>0.1407573048361102</v>
+      </c>
+      <c r="E87">
+        <v>0.01477051001054034</v>
+      </c>
+      <c r="F87">
+        <v>0.04334047877882295</v>
+      </c>
+      <c r="G87">
+        <v>-0.04499504757148451</v>
+      </c>
+      <c r="H87">
+        <v>0.05882855502047812</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8">
       <c r="A88" s="1" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B88">
-        <v>-0.04971768372021743</v>
+        <v>0.03055550401943953</v>
       </c>
       <c r="C88">
-        <v>0.04405429510053219</v>
+        <v>-0.06776916281763552</v>
       </c>
       <c r="D88">
-        <v>-0.02239783580908807</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
+        <v>0.01577481099035059</v>
+      </c>
+      <c r="E88">
+        <v>0.02996470254256941</v>
+      </c>
+      <c r="F88">
+        <v>0.02048555009581011</v>
+      </c>
+      <c r="G88">
+        <v>0.01579143678854472</v>
+      </c>
+      <c r="H88">
+        <v>0.01361312376212361</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8">
       <c r="A89" s="1" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="B89">
-        <v>-0.3231665761753019</v>
+        <v>0.4085464801407148</v>
       </c>
       <c r="C89">
-        <v>-0.3225306769306948</v>
+        <v>0.1469783091710099</v>
       </c>
       <c r="D89">
-        <v>-0.00756971325252473</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
+        <v>0.03520479480526058</v>
+      </c>
+      <c r="E89">
+        <v>-0.05388419171592736</v>
+      </c>
+      <c r="F89">
+        <v>0.06838819303497881</v>
+      </c>
+      <c r="G89">
+        <v>-0.009065977595621411</v>
+      </c>
+      <c r="H89">
+        <v>0.1203224033243339</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8">
       <c r="A90" s="1" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B90">
-        <v>-0.2575715578922036</v>
+        <v>0.3228581116211999</v>
       </c>
       <c r="C90">
-        <v>-0.235378449514888</v>
+        <v>0.09922894916654795</v>
       </c>
       <c r="D90">
-        <v>-0.0373082100668989</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
+        <v>0.03350056672990608</v>
+      </c>
+      <c r="E90">
+        <v>-0.009204530793421314</v>
+      </c>
+      <c r="F90">
+        <v>-0.005657685337456336</v>
+      </c>
+      <c r="G90">
+        <v>-0.06491208068267125</v>
+      </c>
+      <c r="H90">
+        <v>-0.003844016754997806</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8">
       <c r="A91" s="1" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="B91">
-        <v>-0.1526165399585895</v>
+        <v>0.06373014070026509</v>
       </c>
       <c r="C91">
-        <v>0.1860829862232664</v>
+        <v>-0.2066335537919162</v>
       </c>
       <c r="D91">
-        <v>0.1016395263502659</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
+        <v>-0.1092315187883138</v>
+      </c>
+      <c r="E91">
+        <v>-0.0596352773132894</v>
+      </c>
+      <c r="F91">
+        <v>0.06736652520326021</v>
+      </c>
+      <c r="G91">
+        <v>-0.006835925623442618</v>
+      </c>
+      <c r="H91">
+        <v>-0.007227516393917574</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8">
       <c r="A92" s="1" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B92">
-        <v>-0.2441487858245566</v>
+        <v>0.3408728112840705</v>
       </c>
       <c r="C92">
-        <v>-0.2588797388122568</v>
+        <v>0.1351040770277419</v>
       </c>
       <c r="D92">
-        <v>0.06711129635725006</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
+        <v>0.00278437612018716</v>
+      </c>
+      <c r="E92">
+        <v>-0.06372373909559939</v>
+      </c>
+      <c r="F92">
+        <v>0.03035699012247932</v>
+      </c>
+      <c r="G92">
+        <v>-0.03220574642306109</v>
+      </c>
+      <c r="H92">
+        <v>0.0158166522463032</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8">
       <c r="A93" s="1" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B93">
-        <v>-0.2852461605350767</v>
+        <v>0.3363037010014958</v>
       </c>
       <c r="C93">
-        <v>-0.2474949987481965</v>
+        <v>0.1081905227744428</v>
       </c>
       <c r="D93">
-        <v>-0.00904371262121265</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
+        <v>-0.01847674685472777</v>
+      </c>
+      <c r="E93">
+        <v>0.02603353190235029</v>
+      </c>
+      <c r="F93">
+        <v>0.006483644272493097</v>
+      </c>
+      <c r="G93">
+        <v>0.01002535697201701</v>
+      </c>
+      <c r="H93">
+        <v>-0.008151091292310047</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8">
       <c r="A94" s="1" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B94">
-        <v>-0.2881280561921001</v>
+        <v>0.1208933317476341</v>
       </c>
       <c r="C94">
-        <v>0.2751269568228561</v>
+        <v>-0.3480622773080821</v>
       </c>
       <c r="D94">
-        <v>0.3173355153050887</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
+        <v>-0.3568826235497916</v>
+      </c>
+      <c r="E94">
+        <v>-0.06065754115344603</v>
+      </c>
+      <c r="F94">
+        <v>-0.1085168350112448</v>
+      </c>
+      <c r="G94">
+        <v>-0.3292964296297114</v>
+      </c>
+      <c r="H94">
+        <v>-0.02737526104229516</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8">
       <c r="A95" s="1" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="B95">
-        <v>-0.01327832891379332</v>
+        <v>0.01495149749738587</v>
       </c>
       <c r="C95">
-        <v>0.04060759620511315</v>
+        <v>-0.06425929683002381</v>
       </c>
       <c r="D95">
-        <v>0.02481513759693709</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
+        <v>0.08870005456855713</v>
+      </c>
+      <c r="E95">
+        <v>-0.1628060494103807</v>
+      </c>
+      <c r="F95">
+        <v>-0.02331899830229226</v>
+      </c>
+      <c r="G95">
+        <v>0.08401401254296159</v>
+      </c>
+      <c r="H95">
+        <v>0.3135310469285926</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8">
       <c r="A96" s="1" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2035,38 +3187,74 @@
       <c r="D96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:4">
+      <c r="E96">
+        <v>0</v>
+      </c>
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+      <c r="H96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8">
       <c r="A97" s="1" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="B97">
-        <v>0</v>
+        <v>0.001165811037103053</v>
       </c>
       <c r="C97">
-        <v>0</v>
+        <v>-0.000879934408213324</v>
       </c>
       <c r="D97">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4">
+        <v>0.0006140936976283376</v>
+      </c>
+      <c r="E97">
+        <v>0.003717131989272632</v>
+      </c>
+      <c r="F97">
+        <v>0.0006054951138631166</v>
+      </c>
+      <c r="G97">
+        <v>-0.0009350766066721615</v>
+      </c>
+      <c r="H97">
+        <v>0.00453686029232452</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8">
       <c r="A98" s="1" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B98">
-        <v>-0.1478395482579269</v>
+        <v>0.1162012755821065</v>
       </c>
       <c r="C98">
-        <v>0.09257067264583765</v>
+        <v>-0.1571808254726263</v>
       </c>
       <c r="D98">
-        <v>-0.1817152196793856</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
+        <v>0.06145711615083961</v>
+      </c>
+      <c r="E98">
+        <v>0.1984624433592847</v>
+      </c>
+      <c r="F98">
+        <v>-0.2487244107492075</v>
+      </c>
+      <c r="G98">
+        <v>0.2775140814725457</v>
+      </c>
+      <c r="H98">
+        <v>-0.194223901319438</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8">
       <c r="A99" s="1" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2077,10 +3265,22 @@
       <c r="D99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:4">
+      <c r="E99">
+        <v>0</v>
+      </c>
+      <c r="F99">
+        <v>0</v>
+      </c>
+      <c r="G99">
+        <v>0</v>
+      </c>
+      <c r="H99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8">
       <c r="A100" s="1" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2091,38 +3291,74 @@
       <c r="D100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:4">
+      <c r="E100">
+        <v>0</v>
+      </c>
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+      <c r="H100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8">
       <c r="A101" s="1" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="B101">
-        <v>-0.001080094440221378</v>
+        <v>0.002096985993364589</v>
       </c>
       <c r="C101">
-        <v>0.01924059688690399</v>
+        <v>-0.03829165950698867</v>
       </c>
       <c r="D101">
-        <v>-0.09343003764620859</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
+        <v>0.1022749459321054</v>
+      </c>
+      <c r="E101">
+        <v>0.05706405420917847</v>
+      </c>
+      <c r="F101">
+        <v>0.04280114150985817</v>
+      </c>
+      <c r="G101">
+        <v>0.0142679991677166</v>
+      </c>
+      <c r="H101">
+        <v>0.1456592209429435</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8">
       <c r="A102" s="1" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B102">
-        <v>-0.105405394221432</v>
+        <v>0.02730271588779649</v>
       </c>
       <c r="C102">
-        <v>0.1596371322651694</v>
+        <v>-0.1482626936102419</v>
       </c>
       <c r="D102">
-        <v>0.06683879244489289</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4">
+        <v>-0.1021642903467296</v>
+      </c>
+      <c r="E102">
+        <v>-0.03959955287261756</v>
+      </c>
+      <c r="F102">
+        <v>-0.0673137880619403</v>
+      </c>
+      <c r="G102">
+        <v>0.0002428504305972481</v>
+      </c>
+      <c r="H102">
+        <v>0.04023812482698811</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8">
       <c r="A103" s="1" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2133,10 +3369,22 @@
       <c r="D103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:4">
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+      <c r="H103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8">
       <c r="A104" s="1" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2145,6 +3393,18 @@
         <v>0</v>
       </c>
       <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
+        <v>0</v>
+      </c>
+      <c r="H104">
         <v>0</v>
       </c>
     </row>
